--- a/artfynd/A 39568-2022.xlsx
+++ b/artfynd/A 39568-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3296,10 +3296,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6760872</v>
+        <v>110315200</v>
       </c>
       <c r="B24" t="n">
-        <v>96332</v>
+        <v>56395</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3312,21 +3312,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>620</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3334,29 +3334,25 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>blomning</t>
+      <c r="K24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Lit, Rapptorpen / 650 m SV /, Jmt</t>
+          <t>Sefaniastorpet, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>492567.9975663905</v>
+        <v>492439.802486604</v>
       </c>
       <c r="R24" t="n">
-        <v>7023187.509968517</v>
+        <v>7022991.074465509</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3380,27 +3376,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2009-08-04</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2009-08-04</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Fuktstråk i barrskog. Frekvens 1 av 3.</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3411,24 +3402,155 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>Annan skogsmark</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
+          <t>Lena  Stig</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Lena  Stig</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6760872</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96332</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>620</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Skogsfru</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Epipogium aphyllum</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Lit, Rapptorpen / 650 m SV /, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>492567.9975663905</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7023187.509968517</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2009-08-04</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2009-08-04</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Fuktstråk i barrskog. Frekvens 1 av 3.</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Annan skogsmark</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
           <t>Lars-Åke Bäckström</t>
         </is>
       </c>
-      <c r="AX24" t="inlineStr">
+      <c r="AX25" t="inlineStr">
         <is>
           <t>Lars-Åke Bäckström</t>
         </is>
       </c>
-      <c r="AY24" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
